--- a/Excel/shipments.xlsx
+++ b/Excel/shipments.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\BD6\projet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F03AA66-6A71-4FDB-98F7-C16FA45EDEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{E841C3CF-D294-4B98-89CB-63299BE7E8BF}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>shipment_id</t>
   </si>
@@ -82,9 +76,6 @@
     <t>1700-01-01</t>
   </si>
   <si>
-    <t>1700-01-05</t>
-  </si>
-  <si>
     <t>court</t>
   </si>
   <si>
@@ -97,28 +88,106 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>Afrique</t>
-  </si>
-  <si>
     <t>Asie</t>
   </si>
   <si>
-    <t>Amérique du Nord</t>
-  </si>
-  <si>
-    <t>Amérique du Sud</t>
-  </si>
-  <si>
-    <t>Océanie</t>
-  </si>
-  <si>
     <t>Intercontinental</t>
+  </si>
+  <si>
+    <t>port1</t>
+  </si>
+  <si>
+    <t>Empire moghol</t>
+  </si>
+  <si>
+    <t>Dynastie Qing</t>
+  </si>
+  <si>
+    <t>port4</t>
+  </si>
+  <si>
+    <t>port2</t>
+  </si>
+  <si>
+    <t>Confédération Suisse</t>
+  </si>
+  <si>
+    <t>Royaume de France</t>
+  </si>
+  <si>
+    <t>port3</t>
+  </si>
+  <si>
+    <t>1700-01-20</t>
+  </si>
+  <si>
+    <t>Perse</t>
+  </si>
+  <si>
+    <t>Royaume du Kongo</t>
+  </si>
+  <si>
+    <t>Dynastie Joseon</t>
+  </si>
+  <si>
+    <t>Royaume de Portugal</t>
+  </si>
+  <si>
+    <t>Danemark-Norvège</t>
+  </si>
+  <si>
+    <t>1700-02-21</t>
+  </si>
+  <si>
+    <t>1700-10-01</t>
+  </si>
+  <si>
+    <t>1700-10-16</t>
+  </si>
+  <si>
+    <t>1700-07-02</t>
+  </si>
+  <si>
+    <t>1700-06-02</t>
+  </si>
+  <si>
+    <t>1700-03-30</t>
+  </si>
+  <si>
+    <t>port5</t>
+  </si>
+  <si>
+    <t>Empire ottoman</t>
+  </si>
+  <si>
+    <t>1700-07-07</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>1700-05-12</t>
+  </si>
+  <si>
+    <t>1700-06-28</t>
+  </si>
+  <si>
+    <t>Empire espagnol</t>
+  </si>
+  <si>
+    <t>Lan Xang</t>
+  </si>
+  <si>
+    <t>1700-09-06</t>
+  </si>
+  <si>
+    <t>1700-10-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,23 +525,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BADA9F-ED23-4908-A6EF-535E5E0678EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,66 +585,288 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
       <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <v>47</v>
+      </c>
+      <c r="J6">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
         <v>20</v>
       </c>
-      <c r="N3">
-        <v>1000</v>
+      <c r="N7">
+        <v>2109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>2763</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/shipments.xlsx
+++ b/Excel/shipments.xlsx
@@ -525,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,7 +536,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>

--- a/Excel/shipments.xlsx
+++ b/Excel/shipments.xlsx
@@ -109,9 +109,6 @@
     <t>port2</t>
   </si>
   <si>
-    <t>Confédération Suisse</t>
-  </si>
-  <si>
     <t>Royaume de France</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Royaume de Portugal</t>
   </si>
   <si>
-    <t>Danemark-Norvège</t>
-  </si>
-  <si>
     <t>1700-02-21</t>
   </si>
   <si>
@@ -182,6 +176,12 @@
   </si>
   <si>
     <t>1700-10-20</t>
+  </si>
+  <si>
+    <t>Confederation Suisse</t>
+  </si>
+  <si>
+    <t>Danemark-Norvege</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,7 +536,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,7 +608,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -637,19 +637,19 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>16</v>
@@ -678,19 +678,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>30</v>
@@ -716,22 +716,22 @@
         <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>38</v>
@@ -757,22 +757,22 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
       </c>
       <c r="I6">
         <v>47</v>
@@ -801,19 +801,19 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
       </c>
       <c r="I7">
         <v>45</v>
@@ -839,19 +839,19 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>86</v>
@@ -863,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>2763</v>

--- a/Excel/shipments.xlsx
+++ b/Excel/shipments.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>shipment_id</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Danemark-Norvege</t>
+  </si>
+  <si>
+    <t>1700-02-05</t>
+  </si>
+  <si>
+    <t>1700-02-13</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,6 +875,44 @@
         <v>2763</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9">
+        <v>948</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
